--- a/musica_500.xlsx
+++ b/musica_500.xlsx
@@ -11,225 +11,170 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>ROSA MARIA MACHADO BARBOSA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>VICENTE AUGUSTO CIMINO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>LUCÍLIA CHRISPIM CORRÊA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>MARIA APARECIDA DOS SANTOS FERREIRA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>MARIA LUIZA MAZZOCCOLI ALVIM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>RENATA COIMBRA ALVES</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>MARCOS PAULO LIMA LOPES</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>FERNANDA APARECIDA DA SILVA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>LEONARDO COELHO DUARTE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>MONIQUE MAGALHÃES LEITÃO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>FABRÍCIA MENEZES DE ALMEIDA SILVA LOPES</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>ALINE HENRIQUES DA SILVA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>VANESSA FONSECA PONCIO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>LEANDRO MIRANDA ELIAS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>ALEXANDRE DA SILVA CORTEZ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>MARCUS VINICIUS MENDONÇA BARROSO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>PÂMELA RAFAELA DA COSTA FERNANDES</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>ANA CRISTINA DANTAS CORDEIRO DE OLIVEIRA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>ROZIANE DOMINGOS DE OLIVEIRA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>JOSE MARIO DE OLIVEIRA</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>DENISE MENDES DE GONCALVES</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>GISELLE CAMPOS PEREIRA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>LARA DE PAULA CANDIDO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>SARA CRISTINA DE ALMEIDA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>LUCIANO NAZAR DE OLIVEIRA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>JESILEINE DA SILVA VALÉRIO ANDRÉS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>ALMIR CALEBE MARCIÃO DOS SANTOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>TÚLIO EDSON BESSA ANDRADE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>HIAGO BORDIM PEREIRA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>MARCUS VINÍCIUS DE OLIVEIRA MACIEL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>GABRIELA AMORIM FERREIRA DA COSTA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>MARCOS BARBOSA BRAGA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>FERNANDO SANTOS DE OLIVEIRA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>LILIAN DE CASSIA PINTO DE OLIVEIRA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>RAQUEL DE SOUZA PEREIRA</t>
     </r>
   </si>
   <si>
@@ -240,6 +185,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="###0;###0"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="10.0"/>
@@ -258,8 +206,10 @@
       <name val="Times New Roman"/>
     </font>
     <font>
+      <b/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -290,21 +240,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,12 +469,12 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="34.63"/>
+    <col customWidth="1" min="2" max="2" width="44.75"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1">
-        <v>9.0</v>
+        <v>29.0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -535,7 +482,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -543,7 +490,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>11.0</v>
+        <v>31.0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -551,7 +498,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>12.0</v>
+        <v>32.0</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -559,7 +506,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>13.0</v>
+        <v>33.0</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -567,7 +514,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>14.0</v>
+        <v>34.0</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -575,7 +522,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>15.0</v>
+        <v>35.0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
@@ -583,7 +530,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>16.0</v>
+        <v>36.0</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
@@ -591,7 +538,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>17.0</v>
+        <v>37.0</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
@@ -599,7 +546,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>18.0</v>
+        <v>38.0</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -607,7 +554,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>19.0</v>
+        <v>39.0</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
@@ -615,7 +562,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
@@ -623,7 +570,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>21.0</v>
+        <v>41.0</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
@@ -631,7 +578,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>22.0</v>
+        <v>42.0</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>13</v>
@@ -639,56 +586,15 @@
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1">
-        <v>24.0</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>27.0</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>28.0</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/musica_500.xlsx
+++ b/musica_500.xlsx
@@ -11,174 +11,86 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>DENISE MENDES DE GONCALVES</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>GISELLE CAMPOS PEREIRA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>LARA DE PAULA CANDIDO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>SARA CRISTINA DE ALMEIDA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>LUCIANO NAZAR DE OLIVEIRA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>JESILEINE DA SILVA VALÉRIO ANDRÉS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>ALMIR CALEBE MARCIÃO DOS SANTOS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>TÚLIO EDSON BESSA ANDRADE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>HIAGO BORDIM PEREIRA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>MARCUS VINÍCIUS DE OLIVEIRA MACIEL</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>GABRIELA AMORIM FERREIRA DA COSTA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>MARCOS BARBOSA BRAGA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>FERNANDO SANTOS DE OLIVEIRA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>LILIAN DE CASSIA PINTO DE OLIVEIRA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>RAQUEL DE SOUZA PEREIRA</t>
-    </r>
-  </si>
-  <si>
-    <t>FIM - MÚSICA</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>WALKER DE SOUZA SILVA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>FABIANA APARECIDA DA SILVA ALMEIDA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>DANIEL HONORATO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>THAIS DE OLIVEIRA BRAGA DUQUE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>ELMIR PEDRO DOS SANTOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>ANA PAULA DIAS GARCIA AMARAL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>AMANDA DE SOUZA AMORIM MIRANDA</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">FIM - MÚSICA </t>
   </si>
 </sst>
 </file>
@@ -206,7 +118,6 @@
       <name val="Times New Roman"/>
     </font>
     <font>
-      <b/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -240,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -250,7 +161,11 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -469,12 +384,12 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="44.75"/>
+    <col customWidth="1" min="2" max="2" width="28.75"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1">
-        <v>29.0</v>
+        <v>45.0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -482,7 +397,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>30.0</v>
+        <v>46.0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -490,15 +405,15 @@
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>31.0</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>47.0</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>32.0</v>
+        <v>48.0</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -506,7 +421,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>33.0</v>
+        <v>49.0</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -514,7 +429,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>34.0</v>
+        <v>50.0</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -522,79 +437,16 @@
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>35.0</v>
+        <v>51.0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
-        <v>36.0</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>37.0</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>38.0</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>39.0</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>40.0</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>41.0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>42.0</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>43.0</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/musica_500.xlsx
+++ b/musica_500.xlsx
@@ -11,96 +11,100 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>WALKER DE SOUZA SILVA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>FABIANA APARECIDA DA SILVA ALMEIDA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>DANIEL HONORATO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>THAIS DE OLIVEIRA BRAGA DUQUE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>ELMIR PEDRO DOS SANTOS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>ANA PAULA DIAS GARCIA AMARAL</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>AMANDA DE SOUZA AMORIM MIRANDA</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">FIM - MÚSICA </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t>RODRIGO CANDIDO PEREIRA DA SILVA</t>
+  </si>
+  <si>
+    <t>WALACY JESSÉ LOURES GARCIA</t>
+  </si>
+  <si>
+    <t>KEVENN ARNOLD DOS SANTOS SILVA</t>
+  </si>
+  <si>
+    <t>NÁDIA GRIBEL IUNES VASCONCELOS</t>
+  </si>
+  <si>
+    <t>VÂNIA LOPES DE PAULA</t>
+  </si>
+  <si>
+    <t>VANESSA ROBERTA DA SILVA GUALBERTO</t>
+  </si>
+  <si>
+    <t>BRUNA OLIVEIRA DA SILVA</t>
+  </si>
+  <si>
+    <t>SARAH DE BRITO MOREIRA</t>
+  </si>
+  <si>
+    <t>GABRIEL DE JESUS MESQUITA</t>
+  </si>
+  <si>
+    <t>ELLEN GOEBEL RODRIGUES</t>
+  </si>
+  <si>
+    <t>RAMON UZIEL COSTA DO NASCI- MENTO</t>
+  </si>
+  <si>
+    <t>Item 4.5 do edital</t>
+  </si>
+  <si>
+    <t>JULIANA FELISBINA FERREIRA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>RODRIGO MONTEIRO LAVINAS</t>
+  </si>
+  <si>
+    <t>LIZANDRA REGINA CAMPISSE ROMANO</t>
+  </si>
+  <si>
+    <t>LUCAS CAMPOS FERNANDES</t>
+  </si>
+  <si>
+    <t>EDMAR CASSIMIRO PEDRO</t>
+  </si>
+  <si>
+    <t>MARISTELA ROCHA DE ALMEIDA MAGALHÃES</t>
+  </si>
+  <si>
+    <t>ARIELLY RAYSA PEREIRA CORREA DE FREITAS</t>
+  </si>
+  <si>
+    <t>THALES NUNES NOGUEIRA</t>
+  </si>
+  <si>
+    <t>CAROLINNE DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>LUIZ GUILHERME MOHALLEM MARTINS</t>
+  </si>
+  <si>
+    <t>RAQUEL CRISTINA DE MORAES PEREIRA</t>
+  </si>
+  <si>
+    <t>NINA OLIVEIRA QUEIROZ DE PAULA</t>
+  </si>
+  <si>
+    <t>MARCELA LORANNAH VENANCIO</t>
+  </si>
+  <si>
+    <t>SANDRA APARECIDA LOPES</t>
+  </si>
+  <si>
+    <t>CAROLINA CARDOSO CLEMENTE PUGLIESE</t>
+  </si>
+  <si>
+    <t>ELAINE DE ALMADA BAPTISTA</t>
+  </si>
+  <si>
+    <t>SANDRA MARA PEREIRA MARTINS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="###0;###0"/>
-  </numFmts>
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -108,65 +112,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <color rgb="FF000009"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <sz val="9.0"/>
+      <color rgb="FF333333"/>
+      <name val="&quot;Open Sans&quot;"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border/>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -383,13 +362,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="2" max="2" width="28.75"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1">
-        <v>45.0</v>
+        <v>52.0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -397,7 +373,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>46.0</v>
+        <v>53.0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -405,15 +381,15 @@
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>47.0</v>
-      </c>
-      <c r="B3" s="3" t="s">
+        <v>54.0</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>48.0</v>
+        <v>55.0</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -421,7 +397,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>49.0</v>
+        <v>56.0</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -429,7 +405,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>50.0</v>
+        <v>57.0</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -437,16 +413,186 @@
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>51.0</v>
+        <v>58.0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="1">
+        <v>59.0</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>61.0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>62.0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>63.0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>64.0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>65.0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>66.0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>67.0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>68.0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>69.0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>70.0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>71.0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>72.0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>73.0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>74.0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>75.0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>76.0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>77.0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>78.0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>79.0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/musica_500.xlsx
+++ b/musica_500.xlsx
@@ -1,120 +1,153 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Página1" sheetId="1" r:id="rId4"/>
+    <sheet name="Página1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>RODRIGO CANDIDO PEREIRA DA SILVA</t>
-  </si>
-  <si>
-    <t>WALACY JESSÉ LOURES GARCIA</t>
-  </si>
-  <si>
-    <t>KEVENN ARNOLD DOS SANTOS SILVA</t>
-  </si>
-  <si>
-    <t>NÁDIA GRIBEL IUNES VASCONCELOS</t>
-  </si>
-  <si>
-    <t>VÂNIA LOPES DE PAULA</t>
-  </si>
-  <si>
-    <t>VANESSA ROBERTA DA SILVA GUALBERTO</t>
-  </si>
-  <si>
-    <t>BRUNA OLIVEIRA DA SILVA</t>
-  </si>
-  <si>
-    <t>SARAH DE BRITO MOREIRA</t>
-  </si>
-  <si>
-    <t>GABRIEL DE JESUS MESQUITA</t>
-  </si>
-  <si>
-    <t>ELLEN GOEBEL RODRIGUES</t>
-  </si>
-  <si>
-    <t>RAMON UZIEL COSTA DO NASCI- MENTO</t>
-  </si>
-  <si>
-    <t>Item 4.5 do edital</t>
-  </si>
-  <si>
-    <t>JULIANA FELISBINA FERREIRA DOS SANTOS</t>
-  </si>
-  <si>
-    <t>RODRIGO MONTEIRO LAVINAS</t>
-  </si>
-  <si>
-    <t>LIZANDRA REGINA CAMPISSE ROMANO</t>
-  </si>
-  <si>
-    <t>LUCAS CAMPOS FERNANDES</t>
-  </si>
-  <si>
-    <t>EDMAR CASSIMIRO PEDRO</t>
-  </si>
-  <si>
-    <t>MARISTELA ROCHA DE ALMEIDA MAGALHÃES</t>
-  </si>
-  <si>
-    <t>ARIELLY RAYSA PEREIRA CORREA DE FREITAS</t>
-  </si>
-  <si>
-    <t>THALES NUNES NOGUEIRA</t>
-  </si>
-  <si>
-    <t>CAROLINNE DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>LUIZ GUILHERME MOHALLEM MARTINS</t>
-  </si>
-  <si>
-    <t>RAQUEL CRISTINA DE MORAES PEREIRA</t>
-  </si>
-  <si>
-    <t>NINA OLIVEIRA QUEIROZ DE PAULA</t>
-  </si>
-  <si>
-    <t>MARCELA LORANNAH VENANCIO</t>
-  </si>
-  <si>
-    <t>SANDRA APARECIDA LOPES</t>
-  </si>
-  <si>
-    <t>CAROLINA CARDOSO CLEMENTE PUGLIESE</t>
-  </si>
-  <si>
-    <t>ELAINE DE ALMADA BAPTISTA</t>
-  </si>
-  <si>
-    <t>SANDRA MARA PEREIRA MARTINS</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t xml:space="preserve">RODRIGO CANDIDO PEREIRA DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WALACY JESSÉ LOURES GARCIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEVENN ARNOLD DOS SANTOS SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NÁDIA GRIBEL IUNES VASCONCELOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VÂNIA LOPES DE PAULA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VANESSA ROBERTA DA SILVA GUALBERTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRUNA OLIVEIRA DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SARAH DE BRITO MOREIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABRIEL DE JESUS MESQUITA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELLEN GOEBEL RODRIGUES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAMON UZIEL COSTA DO NASCI- MENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item 4.5 do edital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JULIANA FELISBINA FERREIRA DOS SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RODRIGO MONTEIRO LAVINAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIZANDRA REGINA CAMPISSE ROMANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCAS CAMPOS FERNANDES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDMAR CASSIMIRO PEDRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARISTELA ROCHA DE ALMEIDA MAGALHÃES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIELLY RAYSA PEREIRA CORREA DE FREITAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THALES NUNES NOGUEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAROLINNE DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUIZ GUILHERME MOHALLEM MARTINS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAQUEL CRISTINA DE MORAES PEREIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NINA OLIVEIRA QUEIROZ DE PAULA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCELA LORANNAH VENANCIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANDRA APARECIDA LOPES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAROLINA CARDOSO CLEMENTE PUGLIESE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELAINE DE ALMADA BAPTISTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANDRA MARA PEREIRA MARTINS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIM – MÚSICA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="&quot;Open Sans&quot;"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -122,41 +155,72 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -167,94 +231,90 @@
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4285f4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ea4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="fbbc04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="34a853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="ff6d01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="46bdc6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -262,33 +322,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -301,13 +352,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -317,15 +362,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -333,7 +376,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -341,11 +383,11 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -354,248 +396,262 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1">
-        <v>52.0</v>
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="n">
+        <v>52</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>53.0</v>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>54.0</v>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>55.0</v>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>56.0</v>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>56</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>57.0</v>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>58.0</v>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>58</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>59.0</v>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>59</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>60.0</v>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>60</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>61.0</v>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>61</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>62.0</v>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>62</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>63.0</v>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>63</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>64.0</v>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>64</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>65.0</v>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>65</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>66.0</v>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>66</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>67.0</v>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>67</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>68.0</v>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>68</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>69.0</v>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>69</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>70.0</v>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>70</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>71.0</v>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>71</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1">
-        <v>72.0</v>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>72</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1">
-        <v>73.0</v>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>73</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1">
-        <v>74.0</v>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>74</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1">
-        <v>75.0</v>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>75</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1">
-        <v>76.0</v>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>76</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1">
-        <v>77.0</v>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>77</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1">
-        <v>78.0</v>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>78</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1">
-        <v>79.0</v>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>79</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1">
-        <v>80.0</v>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>80</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/musica_500.xlsx
+++ b/musica_500.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">RODRIGO CANDIDO PEREIRA DA SILVA</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t xml:space="preserve">RAMON UZIEL COSTA DO NASCI- MENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item 4.5 do edital</t>
   </si>
   <si>
     <t xml:space="preserve">JULIANA FELISBINA FERREIRA DOS SANTOS</t>
@@ -198,17 +195,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -400,10 +401,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -498,7 +499,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
@@ -506,7 +507,7 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
@@ -514,7 +515,7 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>13</v>
@@ -522,7 +523,7 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
@@ -530,7 +531,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>15</v>
@@ -538,7 +539,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>16</v>
@@ -546,7 +547,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
@@ -554,7 +555,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>18</v>
@@ -562,7 +563,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>19</v>
@@ -570,7 +571,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>20</v>
@@ -578,7 +579,7 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>21</v>
@@ -586,7 +587,7 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>22</v>
@@ -594,7 +595,7 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
@@ -602,7 +603,7 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>24</v>
@@ -610,7 +611,7 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>25</v>
@@ -618,7 +619,7 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>26</v>
@@ -626,25 +627,18 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B29" s="2" t="s">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B29" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
